--- a/notebooks/BestModels.xlsx
+++ b/notebooks/BestModels.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\COMP247 SL\Traffic_Collision_Group_1_section_003COMP247Project\notebooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A6F6A-A5AC-4E2F-B3C6-9D1363DAECE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -41,31 +48,208 @@
   </si>
   <si>
     <t>{'splitter': 'best',
- 'min_samples_split': 5,
+ 'min_samples_split': 45,
  'min_samples_leaf': 4,
  'max_depth': 19,
  'criterion': 'gini'}</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.94      0.94     11396
+           1       0.60      0.63      0.61      1761
+    accuracy                           0.89     13157
+   macro avg       0.77      0.78      0.78     13157
+weighted avg       0.90      0.89      0.90     13157
+              precision    recall  f1-score   support
+           0       0.90      0.94      0.92     11396
+           1       0.93      0.89      0.91     11396
+    accuracy                           0.92     22792
+   macro avg       0.92      0.92      0.92     22792
+weighted avg       0.92      0.92      0.92     22792
+              precision    recall  f1-score   support
+           0       0.91      0.91      0.91      2850
+           1       0.42      0.43      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           0.84      3290
+   macro avg       0.67      0.67      0.67      3290
+weighted avg       0.85      0.84      0.85      3290</t>
+    </r>
+  </si>
+  <si>
     <t>LogisticRegression</t>
   </si>
   <si>
     <t>'C': 1000, 'penalty': 'l2', 'solver': 'newton-cg'}</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">            precision    recall  f1-score   support
+           0       0.94      0.69      0.79     11396
+           1       0.25      0.69      0.37      1761
+    accuracy                           0.69     13157
+   macro avg       0.59      0.69      0.58     13157
+weighted avg       0.84      0.69      0.74     13157
+              precision    recall  f1-score   support
+           0       0.70      0.69      0.69     11396
+           1       0.69      0.71      0.70     11396
+    accuracy                           0.70     22792
+   macro avg       0.70      0.70      0.70     22792
+weighted avg       0.70      0.70      0.70     22792
+              precision    recall  f1-score   support
+           0       0.93      0.68      0.79      2850
+           1       0.24      0.65      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      3290
+   macro avg       0.58      0.67      0.57      3290
+weighted avg       0.84      0.68      0.73      3290</t>
+    </r>
+  </si>
+  <si>
     <t>NaiveBayes</t>
   </si>
   <si>
     <t>{'var_smoothing': 0.01}</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">             precision    recall  f1-score   support
+           0       0.93      0.54      0.68     11396
+           1       0.20      0.74      0.31      1761
+    accuracy                           0.57     13157
+   macro avg       0.56      0.64      0.50     13157
+weighted avg       0.83      0.57      0.63     13157
+              precision    recall  f1-score   support
+           0       0.73      0.54      0.62     11396
+           1       0.64      0.80      0.71     11396
+    accuracy                           0.67     22792
+   macro avg       0.68      0.67      0.66     22792
+weighted avg       0.68      0.67      0.66     22792
+              precision    recall  f1-score   support
+           0       0.92      0.54      0.68      2850
+           1       0.19      0.68      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     3290
+   macro avg       0.55      0.61      0.49      3290
+weighted avg       0.82      0.56      0.63      3290</t>
+    </r>
+  </si>
+  <si>
     <t>RandomForest</t>
   </si>
   <si>
-    <t>{'min_samples_split': 5,
- 'min_samples_leaf': 1,
- 'max_depth': 16,
- 'criterion': 'entropy'}</t>
+    <t>{'n_estimators': 400,
+ 'min_samples_split': 35,
+ 'min_samples_leaf': 10,
+ 'max_depth': 18,
+ 'criterion': 'gini'}</t>
   </si>
   <si>
     <t>Stacking</t>
@@ -74,16 +258,78 @@
     <t>LogisticRegression + NaiveBayes + DecisionTree</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">             precision    recall  f1-score   support
+           0       0.95      0.91      0.93     11396
+           1       0.56      0.70      0.62      1761
+    accuracy                           0.89     13157
+   macro avg       0.75      0.81      0.78     13157
+weighted avg       0.90      0.89      0.89     13157
+              precision    recall  f1-score   support
+           0       0.91      0.91      0.91     11396
+           1       0.91      0.91      0.91     11396
+    accuracy                           0.91     22792
+   macro avg       0.91      0.91      0.91     22792
+weighted avg       0.91      0.91      0.91     22792
+              precision    recall  f1-score   support
+           0       0.92      0.88      0.90      2850
+           1       0.39      0.49      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           0.83      3290
+   macro avg       0.66      0.69      0.67      3290
+weighted avg       0.85      0.83      0.84      3290</t>
+    </r>
+  </si>
+  <si>
     <t>SVC</t>
   </si>
   <si>
     <t>{'C': 100, 'gamma': 'scale', 'kernel': 'rbf'}</t>
   </si>
   <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00      1761
+    accuracy                           1.00     13157
+   macro avg       1.00      1.00      1.00     13157
+weighted avg       1.00      1.00      1.00     13157
+              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00     11396
+    accuracy                           1.00     22792
+   macro avg       1.00      1.00      1.00     22792
+weighted avg       1.00      1.00      1.00     22792
+              precision    recall  f1-score   support
+           0       0.94      0.96      0.95      2850
+           1       0.69      0.60      0.64       440
+    accuracy                           0.91      3290
+   macro avg       0.82      0.78      0.80      3290
+weighted avg       0.91      0.91      0.91      3290</t>
+  </si>
+  <si>
     <t>KNN</t>
   </si>
   <si>
-    <t>{'algorithm': 'auto',
+    <t>{'algorithm': 'kd_tree',
  'metric': 'manhattan',
  'n_neighbors': 5,
  'weights': 'distance'}</t>
@@ -95,7 +341,69 @@
     <t>RandomForest + SVC + KNN</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">             precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00      1761
+    accuracy                           1.00     13157
+   macro avg       1.00      1.00      1.00     13157
+weighted avg       1.00      1.00      1.00     13157
+              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00     11396
+    accuracy                           1.00     22792
+   macro avg       1.00      1.00      1.00     22792
+weighted avg       1.00      1.00      1.00     22792
+              precision    recall  f1-score   support
+           0       0.94      0.97      0.95      2850
+           1       0.73      0.61      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           0.92      3290
+   macro avg       0.84      0.79      0.81      3290
+weighted avg       0.91      0.92      0.92      3290</t>
+    </r>
+  </si>
+  <si>
     <t>Voting Soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00      1761
+    accuracy                           1.00     13157
+   macro avg       1.00      1.00      1.00     13157
+weighted avg       1.00      1.00      1.00     13157
+              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00     11396
+    accuracy                           1.00     22792
+   macro avg       1.00      1.00      1.00     22792
+weighted avg       1.00      1.00      1.00     22792
+              precision    recall  f1-score   support
+           0       0.94      0.98      0.96      2850
+           1       0.82      0.61      0.70       440
+    accuracy                           0.93      3290
+   macro avg       0.88      0.79      0.83      3290
+weighted avg       0.92      0.93      0.92      3290</t>
   </si>
   <si>
     <t>GradientBoost</t>
@@ -105,16 +413,289 @@
  'learning_rate': 0.2,
  'max_depth': 8,
  'max_features': 'sqrt',
+ 'min_samples_split': 0.5,
  'n_estimators': 10,
- 'subsample': 0.95}</t>
+ 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">             precision    recall  f1-score   support
+           0       0.90      0.76      0.82     11396
+           1       0.22      0.45      0.30      1761
+    accuracy                           0.71     13157
+   macro avg       0.56      0.60      0.56     13157
+weighted avg       0.81      0.71      0.75     13157
+              precision    recall  f1-score   support
+           0       0.74      0.76      0.75     11396
+           1       0.75      0.74     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.75 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    11396
+    accuracy                           0.75     22792
+   macro avg       0.75      0.75      0.75     22792
+weighted avg       0.75      0.75      0.75     22792
+              precision    recall  f1-score   support
+           0       0.89      0.75      0.81      2850
+           1       0.20      0.40      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           0.70      3290
+   macro avg       0.54      0.57      0.54      3290
+weighted avg       0.80      0.70      0.74      3290</t>
+    </r>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 1.0, 'gamma': 0.5, 'max_depth': 5, 'subsample': 0.6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.89      0.98      0.94     11396
+           1       0.68      0.25      0.36      1761
+    accuracy                           0.88     13157
+   macro avg       0.79      0.61      0.65     13157
+weighted avg       0.87      0.88      0.86     13157
+              precision    recall  f1-score   support
+           0       0.87      0.98      0.93     11396
+           1       0.98      0.86      0.92     11396
+    accuracy                           0.92     22792
+   macro avg       0.93      0.92      0.92     22792
+weighted avg       0.93      0.92      0.92     22792
+              precision    recall  f1-score   support
+           0       0.88      0.98      0.93      2850
+           1       0.49      0.15      0.23       440
+    accuracy                           0.87      3290
+   macro avg       0.69      0.56      0.58      3290
+weighted avg       0.83      0.87      0.83      3290</t>
+  </si>
+  <si>
+    <t>Base_estimator: DecisionTreeClassifier
+n_estimators: 50
+learning_rate: 1
+algorithm: SAMME</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00      1761
+    accuracy                           1.00     13157
+   macro avg       1.00      1.00      1.00     13157
+weighted avg       1.00      1.00      1.00     13157
+              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00     11396
+    accuracy                           1.00     22792
+   macro avg       1.00      1.00      1.00     22792
+weighted avg       1.00      1.00      1.00     22792
+              precision    recall  f1-score   support
+           0       0.98      1.00      0.99      2850
+           1       0.99      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      0.91       440
+    accuracy                           0.98      3290
+   macro avg       0.98      0.92      0.95      3290
+weighted avg       0.98      0.98      0.98      3290</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0
+[14246, 2201]
+Output exceeds the size limit. Open the full output data in a text editorFitting 10 folds for each of 7 candidates, totalling 70 fits
+[CV 1/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.664 total time=   0.9s
+[CV 2/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.742 total time=   0.9s
+[CV 3/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.875 total time=   0.9s
+[CV 4/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.866 total time=   0.9s
+[CV 5/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.870 total time=   0.9s
+[CV 6/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.886 total time=   0.9s
+[CV 7/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.862 total time=   0.9s
+[CV 8/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.865 total time=   0.9s
+[CV 9/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.871 total time=   0.9s
+[CV 10/10] END criterion=gini, max_depth=8, min_samples_leaf=13, min_samples_split=10, n_estimators=100;, score=0.872 total time=   0.9s
+[CV 1/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.674 total time=   1.4s
+[CV 2/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.780 total time=   1.4s
+[CV 3/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.941 total time=   1.4s
+[CV 4/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.940 total time=   1.4s
+[CV 5/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.941 total time=   1.3s
+[CV 6/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.946 total time=   1.4s
+[CV 7/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.940 total time=   1.5s
+[CV 8/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.939 total time=   1.4s
+[CV 9/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.938 total time=   1.6s
+[CV 10/10] END criterion=entropy, max_depth=13, min_samples_leaf=13, min_samples_split=40, n_estimators=100;, score=0.945 total time=   1.4s
+[CV 1/10] END criterion=entropy, max_depth=13, min_samples_leaf=4, min_samples_split=10, n_estimators=200;, score=0.682 total time=   3.3s
+[CV 2/10] END criterion=entropy, max_depth=13, min_samples_leaf=4, min_samples_split=10, n_estimators=200;, score=0.805 total time=   2.8s
+[CV 3/10] END criterion=entropy, max_depth=13, min_samples_leaf=4, min_samples_split=10, n_estimators=200;, score=0.958 total time=   2.9s
+[CV 4/10] END criterion=entropy, max_depth=13, min_samples_leaf=4, min_samples_split=10, n_estimators=200;, score=0.952 total time=   3.2s
+...
+[CV 7/10] END criterion=entropy, max_depth=15, min_samples_leaf=7, min_samples_split=20, n_estimators=1000;, score=0.971 total time=  16.9s
+[CV 8/10] END criterion=entropy, max_depth=15, min_samples_leaf=7, min_samples_split=20, n_estimators=1000;, score=0.965 total time=  16.3s
+[CV 9/10] END criterion=entropy, max_depth=15, min_samples_leaf=7, min_samples_split=20, n_estimators=1000;, score=0.968 total time=  16.8s
+[CV 10/10] END criterion=entropy, max_depth=15, min_samples_leaf=7, min_samples_split=20, n_estimators=1000;, score=0.968 total time=  16.7s
+0.922400849095094
+0.8708206686930091
+0.9143421752679182
+              precision    recall  f1-score   support
+           0       0.93      0.97      0.95     11396
+           1       0.75      0.54      0.63      1761
+    accuracy                           0.91     13157
+   macro avg       0.84      0.76      0.79     13157
+weighted avg       0.91      0.91      0.91     13157
+              precision    recall  f1-score   support
+           0       0.92      0.97      0.95     11396
+           1       0.97      0.92      0.94     11396
+    accuracy                           0.95     22792
+   macro avg       0.95      0.95      0.95     22792
+weighted avg       0.95      0.95      0.95     22792
+              precision    recall  f1-score   support
+           0       0.90      0.96      0.93      2850
+           1       0.53      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      0.38       440
+    accuracy                           0.87      3290
+   macro avg       0.71      0.63      0.65      3290
+weighted avg       0.85      0.87      0.85      3290
+{'n_estimators': 400,
+ 'min_samples_split': 35,
+ 'min_samples_leaf': 10,
+ 'max_depth': 18,
+ 'criterion': 'gini'}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00      1761
+    accuracy                           1.00     13157
+   macro avg       1.00      1.00      1.00     13157
+weighted avg       1.00      1.00      1.00     13157
+              precision    recall  f1-score   support
+           0       1.00      1.00      1.00     11396
+           1       1.00      1.00      1.00     11396
+    accuracy                           1.00     22792
+   macro avg       1.00      1.00      1.00     22792
+weighted avg       1.00      1.00      1.00     22792
+              precision    recall  f1-score   support
+           0       0.97      0.91      0.94      2850
+           1       0.58      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       440
+    accuracy                           0.90      3290
+   macro avg       0.77      0.86      0.81      3290
+weighted avg       0.92      0.90      0.90      3290</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -134,16 +715,53 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,57 +776,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,10 +858,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -260,71 +899,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,7 +991,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -375,11 +1014,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -388,13 +1027,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -404,7 +1043,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -413,7 +1052,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -422,7 +1061,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -430,10 +1069,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -498,24 +1137,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="10" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="40.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="63.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.88671875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,172 +1170,246 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.91854103343465</v>
+      <c r="C2" s="6">
+        <v>0.97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="72">
+    <row r="3" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.9442224420507858</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.8434650455927052</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.6963848025064856</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.6826747720364742</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.670061257245791</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.584194528875379</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="58.5" customFormat="1" s="8">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.9026851526851527</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.8209726443768997</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.973149600086218</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.908814589665653</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.97314960008621798</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.90881458966565298</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="58.5">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.952921699267915</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.896960486322188</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
+    <row r="9" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.999956124956125</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.9179331306990881</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.9267477203647416</v>
+      <c r="C11" s="6">
+        <v>0.92674772036474162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="85.5">
+    <row r="12" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.721533394147941</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.803647416413373</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="364.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>